--- a/txt/光センサーシステム案.xlsx
+++ b/txt/光センサーシステム案.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ookos\Documents\Git\H28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ookos\Documents\Git\all\txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="構成図" sheetId="1" r:id="rId1"/>
+    <sheet name="仕様書" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" refMode="R1C1"/>
   <extLst>
@@ -24,9 +25,509 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>…ケーブル(LANケーブルなど)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…スマホ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…ルーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…PC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…小動物用ライト</t>
+    <rPh sb="1" eb="5">
+      <t>ショウドウブツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自宅</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光センサー</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…RaspberyPi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・俺が家にいない間は明かりを消してしまうためゲージの中が真っ暗になってしまう。</t>
+    <rPh sb="1" eb="2">
+      <t>オレ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>クラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カーテンを開けるのもいいかもしれないが洗濯物をカーテンレールに干してあるので開けられない</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>センタクモノ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・暗い所にずっといるとストレスが溜まってしまうと思う</t>
+    <rPh sb="1" eb="2">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・健康上よろしくないこともある</t>
+    <rPh sb="1" eb="4">
+      <t>ケンコウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・安いライトを買えばいいと思うがラズベリーパイもいじってみたい上に技術的なものを学んでパイソンを学びたい！！！！</t>
+    <rPh sb="1" eb="2">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ギジュツテキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様要件</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■光センサー</t>
+    <rPh sb="1" eb="2">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・数百円で済むもので半田こてをあまり使わないようなものがいい</t>
+    <rPh sb="1" eb="4">
+      <t>スウヒャクエン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンダ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・また温度湿度センサーも後々買って温度管理も行えるようになりたい</t>
+    <rPh sb="3" eb="5">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シツド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ノチノチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ラズベリーぱい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・購入するバージョンは３</t>
+    <rPh sb="1" eb="3">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・基本的にCLIで動作させる</t>
+    <rPh sb="1" eb="4">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・操作するときは基本的にディスクトップPCからputtyなどで遠隔操作を行う</t>
+    <rPh sb="1" eb="3">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>エンカク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・公開鍵を使い通信の安全課を行うべし</t>
+    <rPh sb="1" eb="3">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>アンゼンカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・光のログを月単位で保存したいのでメモリーは３２Gぐらいはほしいかな？</t>
+    <rPh sb="1" eb="2">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ツキタンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・WiFiで接続？LANケーブル？安全性を選ぶならLANかな</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>アンゼンセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ラズベリーパイで操作できるLEDライト</t>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ラズベリーで操作するにはパイソンでプログラムを書く</t>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ただし今の私では全く先が分からないので要検証！！</t>
+    <rPh sb="4" eb="5">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■配線</t>
+    <rPh sb="1" eb="3">
+      <t>ハイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■公開鍵と秘密鍵の運用方法</t>
+    <rPh sb="1" eb="3">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■LAN範囲以内での運用とするか？</t>
+    <rPh sb="4" eb="6">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■もしWANを通しての運用となる場合安全性が危ぶまれる</t>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>アンゼンセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・解決方法</t>
+    <rPh sb="1" eb="3">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>専用アプリを開発しアプリからしか見れないようにする</t>
+    <rPh sb="0" eb="2">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らずべりーにネットログを出力させてアラートメールを飛ばせるようにしたい</t>
+    <rPh sb="12" eb="14">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー例えば１日以上LEDが点灯していないとか、</t>
+    <rPh sb="1" eb="2">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニチイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー小動物にとって危険な温度湿度に達したときとか</t>
+    <rPh sb="1" eb="4">
+      <t>ショウドウブツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シツド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ーいつもと違うIPアドレスからアクセスがあった場合警告メールを出す</t>
+    <rPh sb="5" eb="6">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最悪メインPCにアクセスされなければOKなのでラズベリーは乗っ取られてもOK</t>
+    <rPh sb="0" eb="2">
+      <t>サイアク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ーその場合はに備えてラズベリーのバックアップをGoogleDriveかメインPCに作成するべし</t>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソナ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -105,16 +606,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -146,7 +647,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3648075" y="2476500"/>
+          <a:off x="1714500" y="1333500"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -158,16 +659,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>169050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>178575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>64275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>83325</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>45225</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>178575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -199,7 +700,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5369700" y="4788675"/>
+          <a:off x="3464700" y="3617100"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -211,16 +712,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -252,7 +753,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143125" y="2095500"/>
+          <a:off x="238125" y="923925"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -264,15 +765,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>7125</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>178575</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>188100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>121425</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>92850</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>54750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -305,7 +806,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="11408550" y="1654950"/>
+          <a:off x="9179700" y="397650"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -317,16 +818,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>176175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>71400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>90450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>185700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -357,7 +858,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8177175" y="4972050"/>
+          <a:off x="6272175" y="3800475"/>
           <a:ext cx="914400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -369,16 +870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -393,7 +894,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010024" y="2962275"/>
+          <a:off x="2105024" y="1790700"/>
           <a:ext cx="6191251" cy="3324225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -430,16 +931,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -471,7 +972,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086350" y="4410075"/>
+          <a:off x="3181350" y="3238500"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -483,16 +984,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -523,7 +1024,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076825" y="3352800"/>
+          <a:off x="3171825" y="2181225"/>
           <a:ext cx="914400" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -535,87 +1036,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="吹き出し: 2 つ折線 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1EA47B0-EC2C-4D09-B807-A3B07EFBF7EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4591051" y="2095500"/>
-          <a:ext cx="552450" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 18750"/>
-            <a:gd name="adj4" fmla="val -16667"/>
-            <a:gd name="adj5" fmla="val 116129"/>
-            <a:gd name="adj6" fmla="val -19188"/>
-            <a:gd name="adj7" fmla="val 222289"/>
-            <a:gd name="adj8" fmla="val -16099"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自宅</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -633,7 +1063,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3476626" y="3533775"/>
+          <a:off x="1571626" y="2362200"/>
           <a:ext cx="1600199" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -660,16 +1090,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -687,7 +1117,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534025" y="3714750"/>
+          <a:off x="3629025" y="2543175"/>
           <a:ext cx="9525" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -714,16 +1144,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -741,7 +1171,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5991225" y="3533775"/>
+          <a:off x="4086225" y="2362200"/>
           <a:ext cx="2343150" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -768,16 +1198,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -792,7 +1222,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3324226" y="3457575"/>
+          <a:off x="1419226" y="2286000"/>
           <a:ext cx="152400" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -828,77 +1258,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="吹き出し: 2 つ折線 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F631341-A3AB-407F-941B-7A21F8A510FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2724150" y="4048125"/>
-          <a:ext cx="1009650" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 18750"/>
-            <a:gd name="adj4" fmla="val -16667"/>
-            <a:gd name="adj5" fmla="val -138871"/>
-            <a:gd name="adj6" fmla="val -17464"/>
-            <a:gd name="adj7" fmla="val -122711"/>
-            <a:gd name="adj8" fmla="val 59666"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>光センサー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -950,16 +1309,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -988,7 +1347,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8334375" y="3257550"/>
+          <a:off x="6429375" y="2085975"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1000,16 +1359,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>33300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>128550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1027,7 +1386,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8620125" y="3829050"/>
+          <a:off x="6715125" y="2657475"/>
           <a:ext cx="14250" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1054,16 +1413,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1078,7 +1437,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="2019300"/>
+          <a:off x="5334000" y="847725"/>
           <a:ext cx="2781300" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="cloud">
@@ -1118,16 +1477,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123166</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>208891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1145,7 +1504,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8620125" y="2637766"/>
+          <a:off x="6715125" y="1466191"/>
           <a:ext cx="9525" cy="619784"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1172,16 +1531,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>167783</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47019</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>63008</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>132744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>72385</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>148372</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>167635</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1213,7 +1572,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="4388246">
-          <a:off x="9737282" y="1536045"/>
+          <a:off x="7832282" y="364470"/>
           <a:ext cx="1568203" cy="1104752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1221,6 +1580,226 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>194072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720EE62B-958B-46CC-A3B5-127602DF4C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9001125" y="2708672"/>
+          <a:ext cx="466725" cy="2187178"/>
+          <a:chOff x="12801600" y="1060847"/>
+          <a:chExt cx="466725" cy="2187178"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="グラフィックス 22" descr="DVD プレーヤー">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF47271-A2DD-4019-A726-8E2293D41E34}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="29166" b="31250"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12820650" y="1060847"/>
+            <a:ext cx="400050" cy="158353"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="27" name="グラフィックス 26" descr="スマート フォン">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7848CEDB-3364-4778-B039-03181B49154D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="12830175" y="1362075"/>
+            <a:ext cx="400050" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="図 27" descr="... de FileZilla Server en Windows | ~MANCERA">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD29695-D5C6-4593-975E-7BBFFBE805F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12887325" y="1857375"/>
+            <a:ext cx="250031" cy="250031"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="29" name="グラフィックス 28" descr="コンピューター">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1EA1CB-0615-4476-8982-0A650CBF0D08}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="17191" b="18225"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="2256234"/>
+            <a:ext cx="400050" cy="258366"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="グラフィックス 30" descr="ランプ">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9705FA-A5D5-4A79-AEF5-EEFB4B8295D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12868275" y="2847975"/>
+            <a:ext cx="400050" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1523,22 +2102,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AA2"/>
+  <dimension ref="G2:AV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BJ26" sqref="BJ26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AV14" sqref="AV14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="65" width="2.625" style="1"/>
-    <col min="66" max="66" width="4.5" style="1" customWidth="1"/>
+    <col min="66" max="66" width="2.625" style="1" customWidth="1"/>
     <col min="67" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="27:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="7:48" x14ac:dyDescent="0.4">
       <c r="AA2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="7:48" x14ac:dyDescent="0.4">
+      <c r="N8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="7:48" x14ac:dyDescent="0.4">
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="7:48" x14ac:dyDescent="0.4">
+      <c r="AV14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="7:48" x14ac:dyDescent="0.4">
+      <c r="AV16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="48:48" x14ac:dyDescent="0.4">
+      <c r="AV18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="48:48" x14ac:dyDescent="0.4">
+      <c r="AV20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="48:48" x14ac:dyDescent="0.4">
+      <c r="AV23" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1546,4 +2160,198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/txt/光センサーシステム案.xlsx
+++ b/txt/光センサーシステム案.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>…ケーブル(LANケーブルなど)</t>
     <phoneticPr fontId="1"/>
@@ -200,31 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・また温度湿度センサーも後々買って温度管理も行えるようになりたい</t>
-    <rPh sb="3" eb="5">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シツド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ノチノチ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■ラズベリーぱい</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -518,15 +493,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ーその場合はに備えてラズベリーのバックアップをGoogleDriveかメインPCに作成するべし</t>
+    <t>松</t>
+    <rPh sb="0" eb="1">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹</t>
+    <rPh sb="0" eb="1">
+      <t>チク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ログ収集</t>
+    <rPh sb="3" eb="5">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・5分ごとにログを取得して日付ごとに情報収集</t>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梅</t>
+    <rPh sb="0" eb="1">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■温度センサー</t>
+    <rPh sb="1" eb="3">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■湿度センサー</t>
+    <rPh sb="1" eb="3">
+      <t>シツド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ネットワーク接続</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・その場合はメインPCからリモートできるようにする</t>
     <rPh sb="3" eb="5">
       <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ソナ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2164,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E37"/>
+  <dimension ref="B2:BJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -2175,179 +2212,188 @@
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:60" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:60" x14ac:dyDescent="0.4">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:60" x14ac:dyDescent="0.4">
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:60" x14ac:dyDescent="0.4">
+      <c r="AE14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:60" x14ac:dyDescent="0.4">
+      <c r="AF15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:60" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
+      <c r="BH16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C14" s="1" t="s">
+      <c r="BI17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C15" s="1" t="s">
+      <c r="AE18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C16" s="1" t="s">
+      <c r="AF19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C17" s="1" t="s">
+      <c r="BJ20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C18" s="1" t="s">
+      <c r="BJ21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C19" s="1" t="s">
+      <c r="BI22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
+    <row r="24" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C21" s="1" t="s">
+    <row r="25" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C22" s="1" t="s">
+    <row r="26" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
+    <row r="27" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C28" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C30" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D31" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E35" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E37" s="1" t="s">
-        <v>41</v>
+    <row r="28" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/txt/光センサーシステム案.xlsx
+++ b/txt/光センサーシステム案.xlsx
@@ -749,16 +749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -790,7 +790,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="923925"/>
+          <a:off x="800100" y="609600"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1837,6 +1837,552 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E686254E-5E72-4F9B-91FE-2ED610D79ADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190624" y="2009775"/>
+          <a:ext cx="3571875" cy="2552699"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent6"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>松</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="四角形: 角を丸くする 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF3B008-5ECA-4D5D-AF47-98E44A2F39E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="1914525"/>
+          <a:ext cx="7058025" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent6"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>竹</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="四角形: 角を丸くする 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5019157-8A79-4739-97BD-38A2F2A3D1D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="152401"/>
+          <a:ext cx="10306051" cy="5610224"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent6"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>梅</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2142,7 +2688,7 @@
   <dimension ref="G2:AV23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AV14" sqref="AV14"/>
+      <selection activeCell="BV18" sqref="BV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -2204,7 +2750,7 @@
   <dimension ref="B2:BJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="BF28" sqref="BF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
